--- a/biology/Médecine/Astrocytome_anaplasique/Astrocytome_anaplasique.xlsx
+++ b/biology/Médecine/Astrocytome_anaplasique/Astrocytome_anaplasique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'astrocytome anaplasique est une tumeur maligne (grade III selon la classification de l'OMS). Il se développe à partir des astrocytes (cellules nerveuses en forme d'étoile)[1]. Il est classé avec les glioblastomes multiformes et les oligodendrogliomes parmi les gliomes malins.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astrocytome anaplasique est une tumeur maligne (grade III selon la classification de l'OMS). Il se développe à partir des astrocytes (cellules nerveuses en forme d'étoile). Il est classé avec les glioblastomes multiformes et les oligodendrogliomes parmi les gliomes malins.
 Beaucoup moins fréquents que les glioblastomes, il survient à tout âge mais le plus souvent entre 40 et 60 ans et plus fréquemment chez l'homme. La médiane de survie peut être de l'ordre de trois ans.
 On ne connaît pas les causes de cette maladie. La tumeur siège le plus souvent au niveau de la substance blanche. Leur prolifération cellulaire est importante et ils peuvent évoluer rapidement vers un glioblastome.
 Les signes neurologiques ne sont pas spécifiques, ce sont ceux de l'hypertension intracrânienne associés souvent à des modifications du comportement ou à des déficits neurologiques focaux, des crises d'épilepsie.
